--- a/Papers.xlsx
+++ b/Papers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristina\Desktop\teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristina\Desktop\Meta bees\Bees\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>ID_code</t>
   </si>
@@ -479,36 +479,6 @@
         <family val="2"/>
       </rPr>
       <t>, v. 254, 2018.</t>
-    </r>
-  </si>
-  <si>
-    <t>C0179</t>
-  </si>
-  <si>
-    <t>10.1098/rspb.2017.0729</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TAMBURINI, G.; LAMI, F.; MARINI, L. Pollination benefits are maximized at intermediate nutrient levels. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Proceedings of the Royal Society B: Biological Sciences</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, v. 284, n. 1860, 2017.</t>
     </r>
   </si>
   <si>
@@ -993,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,17 +1213,6 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
